--- a/biology/Zoologie/Grande_cicerelle/Grande_cicerelle.xlsx
+++ b/biology/Zoologie/Grande_cicerelle/Grande_cicerelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gymnammodytes semisquamatus[2], communément appelé Grande cicerelle, est une espèce de poissons téléostéens, de la famille des Ammodytidae. C'est un lançon de l'Atlantique Nord.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gymnammodytes semisquamatus, communément appelé Grande cicerelle, est une espèce de poissons téléostéens, de la famille des Ammodytidae. C'est un lançon de l'Atlantique Nord.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gymnammodytes semisquamatus se rencontre dans le nord-est de l'Atlantique, du sud des côtes de la Norvège et des Shetland jusqu'en Espagne, y compris les côtes des îles britanniques et la mer du Nord[3]. En revanche cette espèce n'est pas présente dans la Baltique[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gymnammodytes semisquamatus se rencontre dans le nord-est de l'Atlantique, du sud des côtes de la Norvège et des Shetland jusqu'en Espagne, y compris les côtes des îles britanniques et la mer du Nord. En revanche cette espèce n'est pas présente dans la Baltique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taille maximale connue pour Gymnammodytes semisquamatus est de 30 cm mais sa taille habituelle est d'environ 15 cm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille maximale connue pour Gymnammodytes semisquamatus est de 30 cm mais sa taille habituelle est d'environ 15 cm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, semisquamatus, du latin semi, « à moitié », et squamatus, « couvert d'écailles », fait référence à la présence d'écailles que sur le tiers postérieur du corps de ce poisson[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, semisquamatus, du latin semi, « à moitié », et squamatus, « couvert d'écailles », fait référence à la présence d'écailles que sur le tiers postérieur du corps de ce poisson.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Jourdain, 1879 : « Sur les ammodytes des côtes de la Manche ». Revue des sciences naturelles, vol. 8, n. 2-1, p. 203–210.</t>
         </is>
